--- a/backend/data/test_data.xlsx
+++ b/backend/data/test_data.xlsx
@@ -1,15 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="24332"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Dev\hackaton_ambass\backend\backend\data\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Coding\Dev\django_with_tg\backend\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0A07BACA-9D34-41D3-9E22-053D7828E1D3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="19200" windowHeight="11460" firstSheet="3" activeTab="10"/>
+    <workbookView xWindow="2730" yWindow="2730" windowWidth="21600" windowHeight="11385" tabRatio="726" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="ambassadors" sheetId="1" r:id="rId1"/>
@@ -61,9 +62,6 @@
     <t>Active</t>
   </si>
   <si>
-    <t>profiles/Female 1.jpeg</t>
-  </si>
-  <si>
     <t>igor_petrov@mail.ru</t>
   </si>
   <si>
@@ -91,9 +89,6 @@
     <t>Pause</t>
   </si>
   <si>
-    <t>profiles/Male 1.jpeg</t>
-  </si>
-  <si>
     <t>maria_sidorova@gmail.com</t>
   </si>
   <si>
@@ -118,9 +113,6 @@
     <t>Clarify</t>
   </si>
   <si>
-    <t>profiles/Female 2.jpeg</t>
-  </si>
-  <si>
     <t>alexander_smirnov@mail.ru</t>
   </si>
   <si>
@@ -145,9 +137,6 @@
     <t>Not active</t>
   </si>
   <si>
-    <t>profiles/Male 2.jpeg</t>
-  </si>
-  <si>
     <t>olga_ivanova@gmail.com</t>
   </si>
   <si>
@@ -166,9 +155,6 @@
     <t>Психотерапевт</t>
   </si>
   <si>
-    <t>profiles/Female 3.jpeg</t>
-  </si>
-  <si>
     <t>dmitry_kuznetsov@mail.ru</t>
   </si>
   <si>
@@ -190,9 +176,6 @@
     <t>Финансовый аналитик</t>
   </si>
   <si>
-    <t>profiles/Male 3.jpeg</t>
-  </si>
-  <si>
     <t>natalia_morozova@gmail.com</t>
   </si>
   <si>
@@ -214,9 +197,6 @@
     <t>Врач-терапевт</t>
   </si>
   <si>
-    <t>profiles/Female 4.jpeg</t>
-  </si>
-  <si>
     <t>sergey_kozlov@mail.ru</t>
   </si>
   <si>
@@ -238,9 +218,6 @@
     <t>Адвокат</t>
   </si>
   <si>
-    <t>profiles/Male 4.jpeg</t>
-  </si>
-  <si>
     <t>anna_nikolaeva@gmail.com</t>
   </si>
   <si>
@@ -259,9 +236,6 @@
     <t>Финансовый менеджер</t>
   </si>
   <si>
-    <t>profiles/Female 5.jpeg</t>
-  </si>
-  <si>
     <t>ivan_pavlov@mail.ru</t>
   </si>
   <si>
@@ -283,9 +257,6 @@
     <t>Менеджер по маркетингу</t>
   </si>
   <si>
-    <t>profiles/Male 5.jpeg</t>
-  </si>
-  <si>
     <t>Россия</t>
   </si>
   <si>
@@ -683,17 +654,47 @@
   </si>
   <si>
     <t>13,12</t>
+  </si>
+  <si>
+    <t>profiles/Female_1.jpeg</t>
+  </si>
+  <si>
+    <t>profiles/Male_1.jpeg</t>
+  </si>
+  <si>
+    <t>profiles/Female_2.jpeg</t>
+  </si>
+  <si>
+    <t>profiles/Male_2.jpeg</t>
+  </si>
+  <si>
+    <t>profiles/Female_3.jpeg</t>
+  </si>
+  <si>
+    <t>profiles/Male_3.jpeg</t>
+  </si>
+  <si>
+    <t>profiles/Female_4.jpeg</t>
+  </si>
+  <si>
+    <t>profiles/Male_4.jpeg</t>
+  </si>
+  <si>
+    <t>profiles/Male_5.jpeg</t>
+  </si>
+  <si>
+    <t>profiles/Female_5.jpeg</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="4">
     <numFmt numFmtId="164" formatCode="dd&quot;.&quot;mm&quot;.&quot;yy"/>
     <numFmt numFmtId="165" formatCode="yyyy\-mm\-dd"/>
-    <numFmt numFmtId="174" formatCode="[$-FC19]yyyy\,\ dd\ mmmm;@"/>
-    <numFmt numFmtId="175" formatCode="d/m/yyyy;@"/>
+    <numFmt numFmtId="166" formatCode="[$-FC19]yyyy\,\ dd\ mmmm;@"/>
+    <numFmt numFmtId="167" formatCode="d/m/yyyy;@"/>
   </numFmts>
   <fonts count="19">
     <font>
@@ -898,9 +899,9 @@
     <xf numFmtId="0" fontId="17" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="174" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="175" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="175" fontId="16" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyAlignment="1">
+    <xf numFmtId="166" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="167" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="167" fontId="16" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
     <xf numFmtId="0" fontId="17" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
@@ -1137,15 +1138,15 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <sheetPr>
     <tabColor rgb="FFFFC000"/>
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>
   <dimension ref="A1:P10"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="N1" sqref="N1:N10"/>
+    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
+      <selection activeCell="O13" sqref="O13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.5703125" defaultRowHeight="15.75" customHeight="1"/>
@@ -1195,7 +1196,7 @@
         <v>2</v>
       </c>
       <c r="J1" s="20" t="s">
-        <v>190</v>
+        <v>180</v>
       </c>
       <c r="K1" s="2" t="s">
         <v>7</v>
@@ -1210,10 +1211,10 @@
         <v>45078</v>
       </c>
       <c r="O1" s="2" t="s">
-        <v>10</v>
+        <v>208</v>
       </c>
       <c r="P1" s="19" t="s">
-        <v>188</v>
+        <v>178</v>
       </c>
     </row>
     <row r="2" spans="1:16" ht="15.75" customHeight="1">
@@ -1221,49 +1222,49 @@
         <v>22002</v>
       </c>
       <c r="B2" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="C2" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="C2" s="2" t="s">
+      <c r="D2" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="D2" s="2" t="s">
+      <c r="E2" s="2" t="s">
         <v>13</v>
-      </c>
-      <c r="E2" s="2" t="s">
-        <v>14</v>
       </c>
       <c r="F2" s="1">
         <v>79234567890</v>
       </c>
       <c r="G2" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="H2" s="2" t="s">
         <v>15</v>
-      </c>
-      <c r="H2" s="2" t="s">
-        <v>16</v>
       </c>
       <c r="I2" s="15">
         <v>5</v>
       </c>
       <c r="J2" s="20" t="s">
-        <v>190</v>
+        <v>180</v>
       </c>
       <c r="K2" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="L2" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="L2" s="2" t="s">
+      <c r="M2" s="2" t="s">
         <v>18</v>
-      </c>
-      <c r="M2" s="2" t="s">
-        <v>19</v>
       </c>
       <c r="N2" s="18">
         <v>45112</v>
       </c>
       <c r="O2" s="2" t="s">
-        <v>20</v>
+        <v>209</v>
       </c>
       <c r="P2" s="19" t="s">
-        <v>188</v>
+        <v>178</v>
       </c>
     </row>
     <row r="3" spans="1:16" ht="15.75" customHeight="1">
@@ -1271,22 +1272,22 @@
         <v>22003</v>
       </c>
       <c r="B3" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="C3" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="D3" s="2" t="s">
         <v>21</v>
       </c>
-      <c r="C3" s="2" t="s">
+      <c r="E3" s="2" t="s">
         <v>22</v>
-      </c>
-      <c r="D3" s="2" t="s">
-        <v>23</v>
-      </c>
-      <c r="E3" s="2" t="s">
-        <v>24</v>
       </c>
       <c r="F3" s="1">
         <v>79345678901</v>
       </c>
       <c r="G3" s="3" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="H3" s="2" t="s">
         <v>6</v>
@@ -1295,25 +1296,25 @@
         <v>7</v>
       </c>
       <c r="J3" s="20" t="s">
-        <v>190</v>
+        <v>180</v>
       </c>
       <c r="K3" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="L3" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="M3" s="2" t="s">
         <v>26</v>
-      </c>
-      <c r="L3" s="2" t="s">
-        <v>27</v>
-      </c>
-      <c r="M3" s="2" t="s">
-        <v>28</v>
       </c>
       <c r="N3" s="18">
         <v>45148</v>
       </c>
       <c r="O3" s="2" t="s">
-        <v>29</v>
+        <v>210</v>
       </c>
       <c r="P3" s="19" t="s">
-        <v>189</v>
+        <v>179</v>
       </c>
     </row>
     <row r="4" spans="1:16" ht="15.75" customHeight="1">
@@ -1321,49 +1322,49 @@
         <v>22004</v>
       </c>
       <c r="B4" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="C4" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="D4" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="E4" s="2" t="s">
         <v>30</v>
-      </c>
-      <c r="C4" s="2" t="s">
-        <v>31</v>
-      </c>
-      <c r="D4" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="E4" s="2" t="s">
-        <v>33</v>
       </c>
       <c r="F4" s="1">
         <v>79456789012</v>
       </c>
       <c r="G4" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="H4" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="I4" s="15">
+        <v>1</v>
+      </c>
+      <c r="J4" s="20" t="s">
+        <v>180</v>
+      </c>
+      <c r="K4" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="L4" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="M4" s="2" t="s">
         <v>34</v>
-      </c>
-      <c r="H4" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="I4" s="15">
-        <v>1</v>
-      </c>
-      <c r="J4" s="20" t="s">
-        <v>190</v>
-      </c>
-      <c r="K4" s="2" t="s">
-        <v>35</v>
-      </c>
-      <c r="L4" s="2" t="s">
-        <v>36</v>
-      </c>
-      <c r="M4" s="2" t="s">
-        <v>37</v>
       </c>
       <c r="N4" s="18">
         <v>45184</v>
       </c>
       <c r="O4" s="2" t="s">
-        <v>38</v>
+        <v>211</v>
       </c>
       <c r="P4" s="19" t="s">
-        <v>189</v>
+        <v>179</v>
       </c>
     </row>
     <row r="5" spans="1:16" ht="15.75" customHeight="1">
@@ -1371,22 +1372,22 @@
         <v>22005</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>39</v>
+        <v>35</v>
       </c>
       <c r="C5" s="2" t="s">
-        <v>40</v>
+        <v>36</v>
       </c>
       <c r="D5" s="2" t="s">
         <v>3</v>
       </c>
       <c r="E5" s="2" t="s">
-        <v>41</v>
+        <v>37</v>
       </c>
       <c r="F5" s="1">
         <v>79567890123</v>
       </c>
       <c r="G5" s="3" t="s">
-        <v>42</v>
+        <v>38</v>
       </c>
       <c r="H5" s="2" t="s">
         <v>6</v>
@@ -1395,13 +1396,13 @@
         <v>10</v>
       </c>
       <c r="J5" s="20" t="s">
-        <v>190</v>
+        <v>180</v>
       </c>
       <c r="K5" s="2" t="s">
-        <v>43</v>
+        <v>39</v>
       </c>
       <c r="L5" s="2" t="s">
-        <v>44</v>
+        <v>40</v>
       </c>
       <c r="M5" s="2" t="s">
         <v>9</v>
@@ -1410,10 +1411,10 @@
         <v>45219</v>
       </c>
       <c r="O5" s="2" t="s">
-        <v>45</v>
+        <v>212</v>
       </c>
       <c r="P5" s="19" t="s">
-        <v>189</v>
+        <v>179</v>
       </c>
     </row>
     <row r="6" spans="1:16" ht="15.75" customHeight="1">
@@ -1421,37 +1422,37 @@
         <v>22006</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>46</v>
+        <v>41</v>
       </c>
       <c r="C6" s="2" t="s">
-        <v>47</v>
+        <v>42</v>
       </c>
       <c r="D6" s="2" t="s">
-        <v>48</v>
+        <v>43</v>
       </c>
       <c r="E6" s="2" t="s">
-        <v>49</v>
+        <v>44</v>
       </c>
       <c r="F6" s="1">
         <v>79678901234</v>
       </c>
       <c r="G6" s="3" t="s">
-        <v>50</v>
+        <v>45</v>
       </c>
       <c r="H6" s="2" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="I6" s="15">
         <v>6</v>
       </c>
       <c r="J6" s="20" t="s">
-        <v>190</v>
+        <v>180</v>
       </c>
       <c r="K6" s="2" t="s">
-        <v>51</v>
+        <v>46</v>
       </c>
       <c r="L6" s="2" t="s">
-        <v>52</v>
+        <v>47</v>
       </c>
       <c r="M6" s="2" t="s">
         <v>9</v>
@@ -1460,10 +1461,10 @@
         <v>45255</v>
       </c>
       <c r="O6" s="2" t="s">
-        <v>53</v>
+        <v>213</v>
       </c>
       <c r="P6" s="19" t="s">
-        <v>188</v>
+        <v>178</v>
       </c>
     </row>
     <row r="7" spans="1:16" ht="15.75" customHeight="1">
@@ -1471,22 +1472,22 @@
         <v>22007</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>54</v>
+        <v>48</v>
       </c>
       <c r="C7" s="2" t="s">
-        <v>55</v>
+        <v>49</v>
       </c>
       <c r="D7" s="2" t="s">
-        <v>56</v>
+        <v>50</v>
       </c>
       <c r="E7" s="2" t="s">
-        <v>57</v>
+        <v>51</v>
       </c>
       <c r="F7" s="1">
         <v>33612345678</v>
       </c>
       <c r="G7" s="3" t="s">
-        <v>58</v>
+        <v>52</v>
       </c>
       <c r="H7" s="2" t="s">
         <v>6</v>
@@ -1495,25 +1496,25 @@
         <v>8</v>
       </c>
       <c r="J7" s="20" t="s">
-        <v>190</v>
+        <v>180</v>
       </c>
       <c r="K7" s="2" t="s">
-        <v>59</v>
+        <v>53</v>
       </c>
       <c r="L7" s="2" t="s">
-        <v>60</v>
+        <v>54</v>
       </c>
       <c r="M7" s="2" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="N7" s="18">
         <v>45290</v>
       </c>
       <c r="O7" s="2" t="s">
-        <v>61</v>
+        <v>214</v>
       </c>
       <c r="P7" s="19" t="s">
-        <v>189</v>
+        <v>179</v>
       </c>
     </row>
     <row r="8" spans="1:16" ht="15.75" customHeight="1">
@@ -1521,37 +1522,37 @@
         <v>22008</v>
       </c>
       <c r="B8" s="2" t="s">
-        <v>62</v>
+        <v>55</v>
       </c>
       <c r="C8" s="2" t="s">
-        <v>63</v>
+        <v>56</v>
       </c>
       <c r="D8" s="2" t="s">
-        <v>64</v>
+        <v>57</v>
       </c>
       <c r="E8" s="2" t="s">
-        <v>65</v>
+        <v>58</v>
       </c>
       <c r="F8" s="1">
         <v>447890123456</v>
       </c>
       <c r="G8" s="3" t="s">
-        <v>66</v>
+        <v>59</v>
       </c>
       <c r="H8" s="2" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="I8" s="15">
         <v>4</v>
       </c>
       <c r="J8" s="20" t="s">
-        <v>190</v>
+        <v>180</v>
       </c>
       <c r="K8" s="2" t="s">
-        <v>67</v>
+        <v>60</v>
       </c>
       <c r="L8" s="2" t="s">
-        <v>68</v>
+        <v>61</v>
       </c>
       <c r="M8" s="2" t="s">
         <v>9</v>
@@ -1560,10 +1561,10 @@
         <v>45295</v>
       </c>
       <c r="O8" s="2" t="s">
-        <v>69</v>
+        <v>215</v>
       </c>
       <c r="P8" s="19" t="s">
-        <v>188</v>
+        <v>178</v>
       </c>
     </row>
     <row r="9" spans="1:16" ht="15.75" customHeight="1">
@@ -1571,22 +1572,22 @@
         <v>22009</v>
       </c>
       <c r="B9" s="2" t="s">
-        <v>70</v>
+        <v>62</v>
       </c>
       <c r="C9" s="2" t="s">
-        <v>71</v>
+        <v>63</v>
       </c>
       <c r="D9" s="2" t="s">
-        <v>72</v>
+        <v>64</v>
       </c>
       <c r="E9" s="2" t="s">
-        <v>73</v>
+        <v>65</v>
       </c>
       <c r="F9" s="1">
         <v>393456789012</v>
       </c>
       <c r="G9" s="3" t="s">
-        <v>74</v>
+        <v>66</v>
       </c>
       <c r="H9" s="2" t="s">
         <v>6</v>
@@ -1595,25 +1596,25 @@
         <v>3</v>
       </c>
       <c r="J9" s="20" t="s">
-        <v>190</v>
+        <v>180</v>
       </c>
       <c r="K9" s="2" t="s">
         <v>7</v>
       </c>
       <c r="L9" s="2" t="s">
-        <v>75</v>
+        <v>67</v>
       </c>
       <c r="M9" s="2" t="s">
-        <v>37</v>
+        <v>34</v>
       </c>
       <c r="N9" s="18">
         <v>45331</v>
       </c>
       <c r="O9" s="2" t="s">
-        <v>76</v>
+        <v>217</v>
       </c>
       <c r="P9" s="19" t="s">
-        <v>189</v>
+        <v>179</v>
       </c>
     </row>
     <row r="10" spans="1:16" ht="15.75" customHeight="1">
@@ -1621,37 +1622,37 @@
         <v>22010</v>
       </c>
       <c r="B10" s="2" t="s">
-        <v>77</v>
+        <v>68</v>
       </c>
       <c r="C10" s="2" t="s">
-        <v>78</v>
+        <v>69</v>
       </c>
       <c r="D10" s="2" t="s">
-        <v>79</v>
+        <v>70</v>
       </c>
       <c r="E10" s="2" t="s">
-        <v>80</v>
+        <v>71</v>
       </c>
       <c r="F10" s="1">
         <v>79101112233</v>
       </c>
       <c r="G10" s="3" t="s">
-        <v>81</v>
+        <v>72</v>
       </c>
       <c r="H10" s="2" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="I10" s="15">
         <v>9</v>
       </c>
       <c r="J10" s="20" t="s">
-        <v>190</v>
+        <v>180</v>
       </c>
       <c r="K10" s="2" t="s">
-        <v>82</v>
+        <v>73</v>
       </c>
       <c r="L10" s="2" t="s">
-        <v>83</v>
+        <v>74</v>
       </c>
       <c r="M10" s="2" t="s">
         <v>9</v>
@@ -1660,24 +1661,24 @@
         <v>45356</v>
       </c>
       <c r="O10" s="2" t="s">
-        <v>84</v>
+        <v>216</v>
       </c>
       <c r="P10" s="19" t="s">
-        <v>187</v>
+        <v>177</v>
       </c>
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="G1" r:id="rId1"/>
-    <hyperlink ref="G2" r:id="rId2"/>
-    <hyperlink ref="G3" r:id="rId3"/>
-    <hyperlink ref="G4" r:id="rId4"/>
-    <hyperlink ref="G5" r:id="rId5"/>
-    <hyperlink ref="G6" r:id="rId6"/>
-    <hyperlink ref="G7" r:id="rId7"/>
-    <hyperlink ref="G8" r:id="rId8"/>
-    <hyperlink ref="G9" r:id="rId9"/>
-    <hyperlink ref="G10" r:id="rId10"/>
+    <hyperlink ref="G1" r:id="rId1" xr:uid="{00000000-0004-0000-0000-000000000000}"/>
+    <hyperlink ref="G2" r:id="rId2" xr:uid="{00000000-0004-0000-0000-000001000000}"/>
+    <hyperlink ref="G3" r:id="rId3" xr:uid="{00000000-0004-0000-0000-000002000000}"/>
+    <hyperlink ref="G4" r:id="rId4" xr:uid="{00000000-0004-0000-0000-000003000000}"/>
+    <hyperlink ref="G5" r:id="rId5" xr:uid="{00000000-0004-0000-0000-000004000000}"/>
+    <hyperlink ref="G6" r:id="rId6" xr:uid="{00000000-0004-0000-0000-000005000000}"/>
+    <hyperlink ref="G7" r:id="rId7" xr:uid="{00000000-0004-0000-0000-000006000000}"/>
+    <hyperlink ref="G8" r:id="rId8" xr:uid="{00000000-0004-0000-0000-000007000000}"/>
+    <hyperlink ref="G9" r:id="rId9" xr:uid="{00000000-0004-0000-0000-000008000000}"/>
+    <hyperlink ref="G10" r:id="rId10" xr:uid="{00000000-0004-0000-0000-000009000000}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId11"/>
@@ -1685,7 +1686,7 @@
 </file>
 
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0900-000000000000}">
   <sheetPr>
     <tabColor rgb="FFFFC000"/>
     <outlinePr summaryBelow="0" summaryRight="0"/>
@@ -1708,7 +1709,7 @@
         <v>1</v>
       </c>
       <c r="B1" s="13" t="s">
-        <v>170</v>
+        <v>160</v>
       </c>
       <c r="C1" s="1"/>
     </row>
@@ -1717,7 +1718,7 @@
         <v>2</v>
       </c>
       <c r="B2" s="13" t="s">
-        <v>171</v>
+        <v>161</v>
       </c>
       <c r="C2" s="1"/>
     </row>
@@ -1726,7 +1727,7 @@
         <v>3</v>
       </c>
       <c r="B3" s="13" t="s">
-        <v>173</v>
+        <v>163</v>
       </c>
       <c r="C3" s="1">
         <v>35</v>
@@ -1737,7 +1738,7 @@
         <v>4</v>
       </c>
       <c r="B4" s="13" t="s">
-        <v>173</v>
+        <v>163</v>
       </c>
       <c r="C4" s="1">
         <v>36</v>
@@ -1748,7 +1749,7 @@
         <v>5</v>
       </c>
       <c r="B5" s="13" t="s">
-        <v>173</v>
+        <v>163</v>
       </c>
       <c r="C5" s="1">
         <v>37</v>
@@ -1759,7 +1760,7 @@
         <v>6</v>
       </c>
       <c r="B6" s="13" t="s">
-        <v>173</v>
+        <v>163</v>
       </c>
       <c r="C6" s="1">
         <v>38</v>
@@ -1770,7 +1771,7 @@
         <v>7</v>
       </c>
       <c r="B7" s="13" t="s">
-        <v>173</v>
+        <v>163</v>
       </c>
       <c r="C7" s="1">
         <v>39</v>
@@ -1781,7 +1782,7 @@
         <v>8</v>
       </c>
       <c r="B8" s="13" t="s">
-        <v>173</v>
+        <v>163</v>
       </c>
       <c r="C8" s="1">
         <v>40</v>
@@ -1792,7 +1793,7 @@
         <v>9</v>
       </c>
       <c r="B9" s="13" t="s">
-        <v>173</v>
+        <v>163</v>
       </c>
       <c r="C9" s="1">
         <v>41</v>
@@ -1803,7 +1804,7 @@
         <v>10</v>
       </c>
       <c r="B10" s="13" t="s">
-        <v>173</v>
+        <v>163</v>
       </c>
       <c r="C10" s="1">
         <v>42</v>
@@ -1814,7 +1815,7 @@
         <v>11</v>
       </c>
       <c r="B11" s="13" t="s">
-        <v>173</v>
+        <v>163</v>
       </c>
       <c r="C11" s="1">
         <v>43</v>
@@ -1825,7 +1826,7 @@
         <v>12</v>
       </c>
       <c r="B12" s="13" t="s">
-        <v>173</v>
+        <v>163</v>
       </c>
       <c r="C12" s="1">
         <v>44</v>
@@ -1836,7 +1837,7 @@
         <v>13</v>
       </c>
       <c r="B13" s="13" t="s">
-        <v>173</v>
+        <v>163</v>
       </c>
       <c r="C13" s="1">
         <v>45</v>
@@ -1847,10 +1848,10 @@
         <v>14</v>
       </c>
       <c r="B14" s="13" t="s">
-        <v>172</v>
+        <v>162</v>
       </c>
       <c r="C14" s="5" t="s">
-        <v>155</v>
+        <v>145</v>
       </c>
     </row>
     <row r="15" spans="1:3" ht="15.75" customHeight="1">
@@ -1858,10 +1859,10 @@
         <v>15</v>
       </c>
       <c r="B15" s="13" t="s">
-        <v>172</v>
+        <v>162</v>
       </c>
       <c r="C15" s="5" t="s">
-        <v>154</v>
+        <v>144</v>
       </c>
     </row>
     <row r="16" spans="1:3" ht="15.75" customHeight="1">
@@ -1869,10 +1870,10 @@
         <v>16</v>
       </c>
       <c r="B16" s="13" t="s">
-        <v>172</v>
+        <v>162</v>
       </c>
       <c r="C16" s="5" t="s">
-        <v>157</v>
+        <v>147</v>
       </c>
     </row>
     <row r="17" spans="1:3" ht="15.75" customHeight="1">
@@ -1880,10 +1881,10 @@
         <v>17</v>
       </c>
       <c r="B17" s="13" t="s">
-        <v>172</v>
+        <v>162</v>
       </c>
       <c r="C17" s="5" t="s">
-        <v>156</v>
+        <v>146</v>
       </c>
     </row>
     <row r="18" spans="1:3" ht="15.75" customHeight="1">
@@ -1891,10 +1892,10 @@
         <v>18</v>
       </c>
       <c r="B18" s="13" t="s">
-        <v>172</v>
+        <v>162</v>
       </c>
       <c r="C18" s="5" t="s">
-        <v>174</v>
+        <v>164</v>
       </c>
     </row>
     <row r="19" spans="1:3" ht="15.75" customHeight="1">
@@ -1902,7 +1903,7 @@
         <v>19</v>
       </c>
       <c r="B19" s="5" t="s">
-        <v>175</v>
+        <v>165</v>
       </c>
     </row>
     <row r="20" spans="1:3" ht="15.75" customHeight="1">
@@ -1910,7 +1911,7 @@
         <v>20</v>
       </c>
       <c r="B20" s="5" t="s">
-        <v>176</v>
+        <v>166</v>
       </c>
     </row>
     <row r="21" spans="1:3" ht="15.75" customHeight="1">
@@ -1918,7 +1919,7 @@
         <v>21</v>
       </c>
       <c r="B21" s="5" t="s">
-        <v>177</v>
+        <v>167</v>
       </c>
     </row>
     <row r="22" spans="1:3" ht="15.75" customHeight="1">
@@ -1926,7 +1927,7 @@
         <v>22</v>
       </c>
       <c r="B22" s="5" t="s">
-        <v>173</v>
+        <v>163</v>
       </c>
     </row>
     <row r="23" spans="1:3" ht="15.75" customHeight="1">
@@ -1934,7 +1935,7 @@
         <v>23</v>
       </c>
       <c r="B23" s="5" t="s">
-        <v>178</v>
+        <v>168</v>
       </c>
     </row>
     <row r="24" spans="1:3" ht="15.75" customHeight="1">
@@ -1942,7 +1943,7 @@
         <v>24</v>
       </c>
       <c r="B24" s="5" t="s">
-        <v>179</v>
+        <v>169</v>
       </c>
     </row>
     <row r="25" spans="1:3" ht="15.75" customHeight="1">
@@ -1950,7 +1951,7 @@
         <v>25</v>
       </c>
       <c r="B25" s="5" t="s">
-        <v>180</v>
+        <v>170</v>
       </c>
     </row>
     <row r="26" spans="1:3" ht="15.75" customHeight="1">
@@ -1958,7 +1959,7 @@
         <v>26</v>
       </c>
       <c r="B26" s="5" t="s">
-        <v>181</v>
+        <v>171</v>
       </c>
     </row>
     <row r="27" spans="1:3" ht="15.75" customHeight="1">
@@ -1966,7 +1967,7 @@
         <v>27</v>
       </c>
       <c r="B27" s="5" t="s">
-        <v>182</v>
+        <v>172</v>
       </c>
     </row>
     <row r="28" spans="1:3" ht="15.75" customHeight="1">
@@ -1974,7 +1975,7 @@
         <v>28</v>
       </c>
       <c r="B28" s="5" t="s">
-        <v>183</v>
+        <v>173</v>
       </c>
     </row>
   </sheetData>
@@ -1983,14 +1984,14 @@
 </file>
 
 <file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0A00-000000000000}">
   <sheetPr>
     <tabColor rgb="FFFFC000"/>
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>
   <dimension ref="A1:O10"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="D1" workbookViewId="0">
+    <sheetView topLeftCell="D1" workbookViewId="0">
       <selection activeCell="N3" sqref="N3"/>
     </sheetView>
   </sheetViews>
@@ -2030,19 +2031,19 @@
         <v>79123456789</v>
       </c>
       <c r="F1" s="13" t="s">
-        <v>85</v>
+        <v>75</v>
       </c>
       <c r="G1" s="13" t="s">
-        <v>86</v>
+        <v>76</v>
       </c>
       <c r="H1" s="13" t="s">
-        <v>87</v>
+        <v>77</v>
       </c>
       <c r="I1" s="34">
         <v>119296</v>
       </c>
       <c r="J1" s="28" t="s">
-        <v>215</v>
+        <v>205</v>
       </c>
       <c r="K1" s="6" t="s">
         <v>0</v>
@@ -2059,25 +2060,25 @@
         <v>22002</v>
       </c>
       <c r="B2" s="13" t="s">
+        <v>11</v>
+      </c>
+      <c r="C2" s="13" t="s">
         <v>12</v>
       </c>
-      <c r="C2" s="13" t="s">
+      <c r="D2" s="13" t="s">
         <v>13</v>
-      </c>
-      <c r="D2" s="13" t="s">
-        <v>14</v>
       </c>
       <c r="E2" s="1">
         <v>79234567890</v>
       </c>
       <c r="F2" s="13" t="s">
-        <v>85</v>
+        <v>75</v>
       </c>
       <c r="G2" s="13" t="s">
-        <v>88</v>
+        <v>78</v>
       </c>
       <c r="H2" s="13" t="s">
-        <v>89</v>
+        <v>79</v>
       </c>
       <c r="I2" s="34">
         <v>191186</v>
@@ -2102,25 +2103,25 @@
         <v>22003</v>
       </c>
       <c r="B3" s="13" t="s">
+        <v>20</v>
+      </c>
+      <c r="C3" s="13" t="s">
+        <v>21</v>
+      </c>
+      <c r="D3" s="13" t="s">
         <v>22</v>
-      </c>
-      <c r="C3" s="13" t="s">
-        <v>23</v>
-      </c>
-      <c r="D3" s="13" t="s">
-        <v>24</v>
       </c>
       <c r="E3" s="1">
         <v>79345678901</v>
       </c>
       <c r="F3" s="13" t="s">
-        <v>85</v>
+        <v>75</v>
       </c>
       <c r="G3" s="13" t="s">
-        <v>90</v>
+        <v>80</v>
       </c>
       <c r="H3" s="13" t="s">
-        <v>91</v>
+        <v>81</v>
       </c>
       <c r="I3" s="34">
         <v>630099</v>
@@ -2129,7 +2130,7 @@
         <v>15</v>
       </c>
       <c r="K3" s="6" t="s">
-        <v>169</v>
+        <v>159</v>
       </c>
       <c r="L3" s="17">
         <v>45357</v>
@@ -2147,34 +2148,34 @@
         <v>22004</v>
       </c>
       <c r="B4" s="13" t="s">
-        <v>31</v>
+        <v>28</v>
       </c>
       <c r="C4" s="13" t="s">
-        <v>32</v>
+        <v>29</v>
       </c>
       <c r="D4" s="13" t="s">
-        <v>33</v>
+        <v>30</v>
       </c>
       <c r="E4" s="1">
         <v>79456789012</v>
       </c>
       <c r="F4" s="13" t="s">
-        <v>85</v>
+        <v>75</v>
       </c>
       <c r="G4" s="13" t="s">
-        <v>92</v>
+        <v>82</v>
       </c>
       <c r="H4" s="13" t="s">
-        <v>93</v>
+        <v>83</v>
       </c>
       <c r="I4" s="34">
         <v>620075</v>
       </c>
       <c r="J4" s="28" t="s">
-        <v>184</v>
+        <v>174</v>
       </c>
       <c r="K4" s="6" t="s">
-        <v>168</v>
+        <v>158</v>
       </c>
       <c r="L4" s="18">
         <v>45356</v>
@@ -2194,25 +2195,25 @@
         <v>22005</v>
       </c>
       <c r="B5" s="13" t="s">
-        <v>40</v>
+        <v>36</v>
       </c>
       <c r="C5" s="13" t="s">
         <v>3</v>
       </c>
       <c r="D5" s="13" t="s">
-        <v>41</v>
+        <v>37</v>
       </c>
       <c r="E5" s="1">
         <v>79567890123</v>
       </c>
       <c r="F5" s="13" t="s">
+        <v>75</v>
+      </c>
+      <c r="G5" s="13" t="s">
+        <v>84</v>
+      </c>
+      <c r="H5" s="13" t="s">
         <v>85</v>
-      </c>
-      <c r="G5" s="13" t="s">
-        <v>94</v>
-      </c>
-      <c r="H5" s="13" t="s">
-        <v>95</v>
       </c>
       <c r="I5" s="34">
         <v>603005</v>
@@ -2237,34 +2238,34 @@
         <v>22006</v>
       </c>
       <c r="B6" s="13" t="s">
-        <v>47</v>
+        <v>42</v>
       </c>
       <c r="C6" s="13" t="s">
-        <v>48</v>
+        <v>43</v>
       </c>
       <c r="D6" s="13" t="s">
-        <v>49</v>
+        <v>44</v>
       </c>
       <c r="E6" s="1">
         <v>79678901234</v>
       </c>
       <c r="F6" s="13" t="s">
-        <v>85</v>
+        <v>75</v>
       </c>
       <c r="G6" s="13" t="s">
-        <v>96</v>
+        <v>86</v>
       </c>
       <c r="H6" s="13" t="s">
-        <v>97</v>
+        <v>87</v>
       </c>
       <c r="I6" s="34">
         <v>443001</v>
       </c>
       <c r="J6" s="29" t="s">
-        <v>185</v>
+        <v>175</v>
       </c>
       <c r="K6" s="6" t="s">
-        <v>168</v>
+        <v>158</v>
       </c>
       <c r="L6" s="18">
         <v>45354</v>
@@ -2284,34 +2285,34 @@
         <v>22007</v>
       </c>
       <c r="B7" s="13" t="s">
-        <v>55</v>
+        <v>49</v>
       </c>
       <c r="C7" s="13" t="s">
-        <v>56</v>
+        <v>50</v>
       </c>
       <c r="D7" s="13" t="s">
-        <v>57</v>
+        <v>51</v>
       </c>
       <c r="E7" s="1">
         <v>33612345678</v>
       </c>
       <c r="F7" s="13" t="s">
-        <v>98</v>
+        <v>88</v>
       </c>
       <c r="G7" s="13" t="s">
-        <v>99</v>
+        <v>89</v>
       </c>
       <c r="H7" s="13" t="s">
-        <v>100</v>
+        <v>90</v>
       </c>
       <c r="I7" s="34">
         <v>75001</v>
       </c>
       <c r="J7" s="28" t="s">
-        <v>216</v>
+        <v>206</v>
       </c>
       <c r="K7" s="6" t="s">
-        <v>168</v>
+        <v>158</v>
       </c>
       <c r="L7" s="17">
         <v>45353</v>
@@ -2331,34 +2332,34 @@
         <v>22008</v>
       </c>
       <c r="B8" s="13" t="s">
-        <v>63</v>
+        <v>56</v>
       </c>
       <c r="C8" s="13" t="s">
-        <v>64</v>
+        <v>57</v>
       </c>
       <c r="D8" s="13" t="s">
-        <v>65</v>
+        <v>58</v>
       </c>
       <c r="E8" s="1">
         <v>447890123456</v>
       </c>
       <c r="F8" s="13" t="s">
-        <v>101</v>
+        <v>91</v>
       </c>
       <c r="G8" s="13" t="s">
-        <v>102</v>
+        <v>92</v>
       </c>
       <c r="H8" s="13" t="s">
-        <v>103</v>
+        <v>93</v>
       </c>
       <c r="I8" s="34">
         <v>78988546</v>
       </c>
       <c r="J8" s="29" t="s">
-        <v>186</v>
+        <v>176</v>
       </c>
       <c r="K8" s="6" t="s">
-        <v>168</v>
+        <v>158</v>
       </c>
       <c r="L8" s="18">
         <v>45352</v>
@@ -2378,25 +2379,25 @@
         <v>22009</v>
       </c>
       <c r="B9" s="13" t="s">
-        <v>71</v>
+        <v>63</v>
       </c>
       <c r="C9" s="13" t="s">
-        <v>72</v>
+        <v>64</v>
       </c>
       <c r="D9" s="13" t="s">
-        <v>73</v>
+        <v>65</v>
       </c>
       <c r="E9" s="1">
         <v>393456789012</v>
       </c>
       <c r="F9" s="13" t="s">
-        <v>104</v>
+        <v>94</v>
       </c>
       <c r="G9" s="13" t="s">
-        <v>105</v>
+        <v>95</v>
       </c>
       <c r="H9" s="13" t="s">
-        <v>106</v>
+        <v>96</v>
       </c>
       <c r="I9" s="34">
         <v>186</v>
@@ -2405,7 +2406,7 @@
         <v>16</v>
       </c>
       <c r="K9" s="6" t="s">
-        <v>169</v>
+        <v>159</v>
       </c>
       <c r="L9" s="17">
         <v>45351</v>
@@ -2423,34 +2424,34 @@
         <v>22010</v>
       </c>
       <c r="B10" s="13" t="s">
-        <v>78</v>
+        <v>69</v>
       </c>
       <c r="C10" s="13" t="s">
-        <v>79</v>
+        <v>70</v>
       </c>
       <c r="D10" s="13" t="s">
-        <v>80</v>
+        <v>71</v>
       </c>
       <c r="E10" s="1">
         <v>79101112233</v>
       </c>
       <c r="F10" s="13" t="s">
-        <v>85</v>
+        <v>75</v>
       </c>
       <c r="G10" s="13" t="s">
-        <v>107</v>
+        <v>97</v>
       </c>
       <c r="H10" s="13" t="s">
-        <v>108</v>
+        <v>98</v>
       </c>
       <c r="I10" s="34">
         <v>344002</v>
       </c>
       <c r="J10" s="31" t="s">
-        <v>217</v>
+        <v>207</v>
       </c>
       <c r="K10" s="6" t="s">
-        <v>169</v>
+        <v>159</v>
       </c>
       <c r="L10" s="18">
         <v>45350</v>
@@ -2469,7 +2470,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <sheetPr>
     <tabColor rgb="FFFFC000"/>
     <outlinePr summaryBelow="0" summaryRight="0"/>
@@ -2491,13 +2492,13 @@
   <sheetData>
     <row r="1" spans="1:5" ht="15.75" customHeight="1">
       <c r="A1" s="2" t="s">
-        <v>85</v>
+        <v>75</v>
       </c>
       <c r="B1" s="2" t="s">
-        <v>86</v>
+        <v>76</v>
       </c>
       <c r="C1" s="2" t="s">
-        <v>87</v>
+        <v>77</v>
       </c>
       <c r="D1" s="1">
         <v>119296</v>
@@ -2508,13 +2509,13 @@
     </row>
     <row r="2" spans="1:5" ht="15.75" customHeight="1">
       <c r="A2" s="2" t="s">
-        <v>85</v>
+        <v>75</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>88</v>
+        <v>78</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>89</v>
+        <v>79</v>
       </c>
       <c r="D2" s="1">
         <v>191186</v>
@@ -2525,13 +2526,13 @@
     </row>
     <row r="3" spans="1:5" ht="15.75" customHeight="1">
       <c r="A3" s="2" t="s">
-        <v>85</v>
+        <v>75</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>90</v>
+        <v>80</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>91</v>
+        <v>81</v>
       </c>
       <c r="D3" s="1">
         <v>630099</v>
@@ -2542,13 +2543,13 @@
     </row>
     <row r="4" spans="1:5" ht="15.75" customHeight="1">
       <c r="A4" s="2" t="s">
-        <v>85</v>
+        <v>75</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>92</v>
+        <v>82</v>
       </c>
       <c r="C4" s="2" t="s">
-        <v>93</v>
+        <v>83</v>
       </c>
       <c r="D4" s="1">
         <v>620075</v>
@@ -2559,13 +2560,13 @@
     </row>
     <row r="5" spans="1:5" ht="15.75" customHeight="1">
       <c r="A5" s="2" t="s">
+        <v>75</v>
+      </c>
+      <c r="B5" s="2" t="s">
+        <v>84</v>
+      </c>
+      <c r="C5" s="2" t="s">
         <v>85</v>
-      </c>
-      <c r="B5" s="2" t="s">
-        <v>94</v>
-      </c>
-      <c r="C5" s="2" t="s">
-        <v>95</v>
       </c>
       <c r="D5" s="1">
         <v>603005</v>
@@ -2576,13 +2577,13 @@
     </row>
     <row r="6" spans="1:5" ht="15.75" customHeight="1">
       <c r="A6" s="2" t="s">
-        <v>85</v>
+        <v>75</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>96</v>
+        <v>86</v>
       </c>
       <c r="C6" s="2" t="s">
-        <v>97</v>
+        <v>87</v>
       </c>
       <c r="D6" s="1">
         <v>443001</v>
@@ -2593,13 +2594,13 @@
     </row>
     <row r="7" spans="1:5" ht="15.75" customHeight="1">
       <c r="A7" s="2" t="s">
-        <v>98</v>
+        <v>88</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>99</v>
+        <v>89</v>
       </c>
       <c r="C7" s="2" t="s">
-        <v>100</v>
+        <v>90</v>
       </c>
       <c r="D7" s="1">
         <v>75001</v>
@@ -2610,13 +2611,13 @@
     </row>
     <row r="8" spans="1:5" ht="15.75" customHeight="1">
       <c r="A8" s="2" t="s">
-        <v>101</v>
+        <v>91</v>
       </c>
       <c r="B8" s="2" t="s">
-        <v>102</v>
+        <v>92</v>
       </c>
       <c r="C8" s="2" t="s">
-        <v>103</v>
+        <v>93</v>
       </c>
       <c r="D8" s="1">
         <v>654789</v>
@@ -2627,13 +2628,13 @@
     </row>
     <row r="9" spans="1:5" ht="15.75" customHeight="1">
       <c r="A9" s="2" t="s">
-        <v>104</v>
+        <v>94</v>
       </c>
       <c r="B9" s="2" t="s">
-        <v>105</v>
+        <v>95</v>
       </c>
       <c r="C9" s="2" t="s">
-        <v>106</v>
+        <v>96</v>
       </c>
       <c r="D9" s="1">
         <v>186</v>
@@ -2644,13 +2645,13 @@
     </row>
     <row r="10" spans="1:5" ht="15.75" customHeight="1">
       <c r="A10" s="2" t="s">
-        <v>85</v>
+        <v>75</v>
       </c>
       <c r="B10" s="2" t="s">
-        <v>107</v>
+        <v>97</v>
       </c>
       <c r="C10" s="2" t="s">
-        <v>108</v>
+        <v>98</v>
       </c>
       <c r="D10" s="1">
         <v>344002</v>
@@ -2665,7 +2666,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <sheetPr>
     <tabColor rgb="FFFFC000"/>
     <outlinePr summaryBelow="0" summaryRight="0"/>
@@ -2688,10 +2689,10 @@
         <v>1</v>
       </c>
       <c r="B1" s="2" t="s">
-        <v>109</v>
+        <v>99</v>
       </c>
       <c r="C1" s="2" t="s">
-        <v>110</v>
+        <v>100</v>
       </c>
     </row>
     <row r="2" spans="1:3" ht="15.75" customHeight="1">
@@ -2699,10 +2700,10 @@
         <v>2</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>111</v>
+        <v>101</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>112</v>
+        <v>102</v>
       </c>
     </row>
     <row r="3" spans="1:3" ht="15.75" customHeight="1">
@@ -2710,10 +2711,10 @@
         <v>3</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>113</v>
+        <v>103</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>114</v>
+        <v>104</v>
       </c>
     </row>
     <row r="4" spans="1:3" ht="15.75" customHeight="1">
@@ -2721,10 +2722,10 @@
         <v>4</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="C4" s="2" t="s">
-        <v>115</v>
+        <v>105</v>
       </c>
     </row>
     <row r="5" spans="1:3" ht="15.75" customHeight="1">
@@ -2732,10 +2733,10 @@
         <v>5</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>116</v>
+        <v>106</v>
       </c>
       <c r="C5" s="2" t="s">
-        <v>117</v>
+        <v>107</v>
       </c>
     </row>
     <row r="6" spans="1:3" ht="15.75" customHeight="1">
@@ -2743,10 +2744,10 @@
         <v>6</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>118</v>
+        <v>108</v>
       </c>
       <c r="C6" s="2" t="s">
-        <v>119</v>
+        <v>109</v>
       </c>
     </row>
     <row r="7" spans="1:3" ht="15.75" customHeight="1">
@@ -2754,10 +2755,10 @@
         <v>7</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>120</v>
+        <v>110</v>
       </c>
       <c r="C7" s="2" t="s">
-        <v>121</v>
+        <v>111</v>
       </c>
     </row>
     <row r="8" spans="1:3" ht="15.75" customHeight="1">
@@ -2765,10 +2766,10 @@
         <v>8</v>
       </c>
       <c r="B8" s="2" t="s">
-        <v>122</v>
+        <v>112</v>
       </c>
       <c r="C8" s="2" t="s">
-        <v>123</v>
+        <v>113</v>
       </c>
     </row>
     <row r="9" spans="1:3" ht="15.75" customHeight="1">
@@ -2776,10 +2777,10 @@
         <v>9</v>
       </c>
       <c r="B9" s="2" t="s">
-        <v>124</v>
+        <v>114</v>
       </c>
       <c r="C9" s="2" t="s">
-        <v>125</v>
+        <v>115</v>
       </c>
     </row>
     <row r="10" spans="1:3" ht="15.75" customHeight="1">
@@ -2787,10 +2788,10 @@
         <v>10</v>
       </c>
       <c r="B10" s="2" t="s">
-        <v>126</v>
+        <v>116</v>
       </c>
       <c r="C10" s="2" t="s">
-        <v>127</v>
+        <v>117</v>
       </c>
     </row>
   </sheetData>
@@ -2799,7 +2800,7 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
   <sheetPr>
     <tabColor rgb="FFFFC000"/>
     <outlinePr summaryBelow="0" summaryRight="0"/>
@@ -2822,10 +2823,10 @@
         <v>1</v>
       </c>
       <c r="B1" s="5" t="s">
-        <v>128</v>
+        <v>118</v>
       </c>
       <c r="C1" s="5" t="s">
-        <v>129</v>
+        <v>119</v>
       </c>
     </row>
     <row r="2" spans="1:3">
@@ -2833,10 +2834,10 @@
         <v>2</v>
       </c>
       <c r="B2" s="5" t="s">
-        <v>130</v>
+        <v>120</v>
       </c>
       <c r="C2" s="5" t="s">
-        <v>131</v>
+        <v>121</v>
       </c>
     </row>
     <row r="3" spans="1:3">
@@ -2844,10 +2845,10 @@
         <v>3</v>
       </c>
       <c r="B3" s="5" t="s">
-        <v>132</v>
+        <v>122</v>
       </c>
       <c r="C3" s="5" t="s">
-        <v>133</v>
+        <v>123</v>
       </c>
     </row>
     <row r="4" spans="1:3">
@@ -2855,10 +2856,10 @@
         <v>4</v>
       </c>
       <c r="B4" s="5" t="s">
-        <v>134</v>
+        <v>124</v>
       </c>
       <c r="C4" s="5" t="s">
-        <v>135</v>
+        <v>125</v>
       </c>
     </row>
     <row r="5" spans="1:3">
@@ -2866,10 +2867,10 @@
         <v>5</v>
       </c>
       <c r="B5" s="5" t="s">
-        <v>136</v>
+        <v>126</v>
       </c>
       <c r="C5" s="5" t="s">
-        <v>137</v>
+        <v>127</v>
       </c>
     </row>
     <row r="6" spans="1:3">
@@ -2877,10 +2878,10 @@
         <v>6</v>
       </c>
       <c r="B6" s="5" t="s">
-        <v>138</v>
+        <v>128</v>
       </c>
       <c r="C6" s="5" t="s">
-        <v>139</v>
+        <v>129</v>
       </c>
     </row>
   </sheetData>
@@ -2889,7 +2890,7 @@
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
   <sheetPr>
     <tabColor rgb="FFFFC000"/>
     <outlinePr summaryBelow="0" summaryRight="0"/>
@@ -3080,7 +3081,7 @@
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0500-000000000000}">
   <sheetPr>
     <tabColor rgb="FFFFC000"/>
     <outlinePr summaryBelow="0" summaryRight="0"/>
@@ -3103,7 +3104,7 @@
         <v>22001</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>154</v>
+        <v>144</v>
       </c>
       <c r="C1" s="1">
         <v>38</v>
@@ -3114,7 +3115,7 @@
         <v>22002</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>155</v>
+        <v>145</v>
       </c>
       <c r="C2" s="1">
         <v>40</v>
@@ -3125,7 +3126,7 @@
         <v>22003</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>156</v>
+        <v>146</v>
       </c>
       <c r="C3" s="1">
         <v>42</v>
@@ -3136,7 +3137,7 @@
         <v>22004</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>157</v>
+        <v>147</v>
       </c>
       <c r="C4" s="1">
         <v>44</v>
@@ -3147,7 +3148,7 @@
         <v>22005</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>154</v>
+        <v>144</v>
       </c>
       <c r="C5" s="1">
         <v>37</v>
@@ -3158,7 +3159,7 @@
         <v>22006</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>157</v>
+        <v>147</v>
       </c>
       <c r="C6" s="1">
         <v>45</v>
@@ -3169,7 +3170,7 @@
         <v>22007</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>154</v>
+        <v>144</v>
       </c>
       <c r="C7" s="1">
         <v>39</v>
@@ -3180,7 +3181,7 @@
         <v>22008</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>155</v>
+        <v>145</v>
       </c>
       <c r="C8" s="1">
         <v>41</v>
@@ -3191,7 +3192,7 @@
         <v>22009</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>157</v>
+        <v>147</v>
       </c>
       <c r="C9" s="1">
         <v>36</v>
@@ -3202,7 +3203,7 @@
         <v>22010</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>156</v>
+        <v>146</v>
       </c>
       <c r="C10" s="1">
         <v>43</v>
@@ -3214,7 +3215,7 @@
 </file>
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0600-000000000000}">
   <sheetPr>
     <tabColor rgb="FFFFC000"/>
     <outlinePr summaryBelow="0" summaryRight="0"/>
@@ -3249,16 +3250,16 @@
         <v>45085</v>
       </c>
       <c r="D1" s="25" t="s">
-        <v>205</v>
+        <v>195</v>
       </c>
       <c r="E1" s="6">
         <v>1</v>
       </c>
       <c r="F1" s="6" t="s">
-        <v>140</v>
+        <v>130</v>
       </c>
       <c r="G1" s="6" t="s">
-        <v>141</v>
+        <v>131</v>
       </c>
       <c r="H1" s="2"/>
       <c r="I1" s="6">
@@ -3276,16 +3277,16 @@
         <v>45119</v>
       </c>
       <c r="D2" s="25" t="s">
-        <v>149</v>
+        <v>139</v>
       </c>
       <c r="E2" s="7">
         <v>1</v>
       </c>
       <c r="F2" s="6" t="s">
-        <v>142</v>
+        <v>132</v>
       </c>
       <c r="G2" s="6" t="s">
-        <v>143</v>
+        <v>133</v>
       </c>
       <c r="H2" s="4"/>
       <c r="I2" s="6">
@@ -3303,16 +3304,16 @@
         <v>45155</v>
       </c>
       <c r="D3" s="25" t="s">
-        <v>206</v>
+        <v>196</v>
       </c>
       <c r="E3" s="6">
         <v>1</v>
       </c>
       <c r="F3" s="6" t="s">
-        <v>142</v>
+        <v>132</v>
       </c>
       <c r="G3" s="6" t="s">
-        <v>143</v>
+        <v>133</v>
       </c>
       <c r="H3" s="2"/>
       <c r="I3" s="6">
@@ -3330,16 +3331,16 @@
         <v>45198</v>
       </c>
       <c r="D4" s="26" t="s">
-        <v>150</v>
+        <v>140</v>
       </c>
       <c r="E4" s="6">
         <v>0</v>
       </c>
       <c r="F4" s="6" t="s">
-        <v>144</v>
+        <v>134</v>
       </c>
       <c r="G4" s="6" t="s">
-        <v>145</v>
+        <v>135</v>
       </c>
       <c r="H4" s="2"/>
       <c r="I4" s="6">
@@ -3357,19 +3358,19 @@
         <v>45233</v>
       </c>
       <c r="D5" s="26" t="s">
-        <v>214</v>
+        <v>204</v>
       </c>
       <c r="E5" s="6">
         <v>1</v>
       </c>
       <c r="F5" s="6" t="s">
-        <v>140</v>
+        <v>130</v>
       </c>
       <c r="G5" s="6" t="s">
-        <v>146</v>
+        <v>136</v>
       </c>
       <c r="H5" s="8" t="s">
-        <v>147</v>
+        <v>137</v>
       </c>
       <c r="I5" s="6">
         <v>0</v>
@@ -3386,16 +3387,16 @@
         <v>45269</v>
       </c>
       <c r="D6" s="26" t="s">
-        <v>151</v>
+        <v>141</v>
       </c>
       <c r="E6" s="6">
         <v>1</v>
       </c>
       <c r="F6" s="6" t="s">
-        <v>140</v>
+        <v>130</v>
       </c>
       <c r="G6" s="6" t="s">
-        <v>146</v>
+        <v>136</v>
       </c>
       <c r="H6" s="2"/>
       <c r="I6" s="6">
@@ -3413,16 +3414,16 @@
         <v>45296</v>
       </c>
       <c r="D7" s="26" t="s">
-        <v>152</v>
+        <v>142</v>
       </c>
       <c r="E7" s="6">
         <v>0</v>
       </c>
       <c r="F7" s="6" t="s">
-        <v>142</v>
+        <v>132</v>
       </c>
       <c r="G7" s="6" t="s">
-        <v>143</v>
+        <v>133</v>
       </c>
       <c r="H7" s="2"/>
       <c r="I7" s="6">
@@ -3440,16 +3441,16 @@
         <v>45316</v>
       </c>
       <c r="D8" s="26" t="s">
-        <v>207</v>
+        <v>197</v>
       </c>
       <c r="E8" s="6">
         <v>1</v>
       </c>
       <c r="F8" s="6" t="s">
-        <v>140</v>
+        <v>130</v>
       </c>
       <c r="G8" s="6" t="s">
-        <v>148</v>
+        <v>138</v>
       </c>
       <c r="H8" s="2"/>
       <c r="I8" s="6">
@@ -3467,16 +3468,16 @@
         <v>45345</v>
       </c>
       <c r="D9" s="26" t="s">
-        <v>153</v>
+        <v>143</v>
       </c>
       <c r="E9" s="6">
         <v>1</v>
       </c>
       <c r="F9" s="6" t="s">
-        <v>142</v>
+        <v>132</v>
       </c>
       <c r="G9" s="6" t="s">
-        <v>146</v>
+        <v>136</v>
       </c>
       <c r="H9" s="2"/>
       <c r="I9" s="6">
@@ -3494,16 +3495,16 @@
         <v>45356</v>
       </c>
       <c r="D10" s="26" t="s">
-        <v>208</v>
+        <v>198</v>
       </c>
       <c r="E10" s="6">
         <v>1</v>
       </c>
       <c r="F10" s="6" t="s">
-        <v>140</v>
+        <v>130</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>148</v>
+        <v>138</v>
       </c>
       <c r="H10" s="2"/>
       <c r="I10" s="6">
@@ -3521,16 +3522,16 @@
         <v>45112</v>
       </c>
       <c r="D11" s="23" t="s">
-        <v>209</v>
+        <v>199</v>
       </c>
       <c r="E11" s="7">
         <v>1</v>
       </c>
       <c r="F11" s="6" t="s">
-        <v>140</v>
+        <v>130</v>
       </c>
       <c r="G11" s="6" t="s">
-        <v>143</v>
+        <v>133</v>
       </c>
       <c r="H11" s="4"/>
       <c r="I11" s="6">
@@ -3548,16 +3549,16 @@
         <v>45113</v>
       </c>
       <c r="D12" s="23" t="s">
-        <v>210</v>
+        <v>200</v>
       </c>
       <c r="E12" s="7">
         <v>1</v>
       </c>
       <c r="F12" s="6" t="s">
-        <v>142</v>
+        <v>132</v>
       </c>
       <c r="G12" s="6" t="s">
-        <v>143</v>
+        <v>133</v>
       </c>
       <c r="H12" s="4"/>
       <c r="I12" s="6">
@@ -3575,16 +3576,16 @@
         <v>45114</v>
       </c>
       <c r="D13" s="27" t="s">
-        <v>212</v>
+        <v>202</v>
       </c>
       <c r="E13" s="7">
         <v>1</v>
       </c>
       <c r="F13" s="6" t="s">
-        <v>142</v>
+        <v>132</v>
       </c>
       <c r="G13" s="6" t="s">
-        <v>143</v>
+        <v>133</v>
       </c>
       <c r="H13" s="4"/>
       <c r="I13" s="6">
@@ -3602,16 +3603,16 @@
         <v>45115</v>
       </c>
       <c r="D14" s="21" t="s">
-        <v>213</v>
+        <v>203</v>
       </c>
       <c r="E14" s="7">
         <v>1</v>
       </c>
       <c r="F14" s="6" t="s">
-        <v>142</v>
+        <v>132</v>
       </c>
       <c r="G14" s="6" t="s">
-        <v>143</v>
+        <v>133</v>
       </c>
       <c r="H14" s="4"/>
       <c r="I14" s="6">
@@ -3620,22 +3621,22 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="D1" r:id="rId1"/>
-    <hyperlink ref="D2" r:id="rId2"/>
-    <hyperlink ref="D3" r:id="rId3"/>
-    <hyperlink ref="D4" r:id="rId4"/>
-    <hyperlink ref="D6" r:id="rId5"/>
-    <hyperlink ref="D7" r:id="rId6"/>
-    <hyperlink ref="D8" r:id="rId7"/>
-    <hyperlink ref="D9" r:id="rId8"/>
-    <hyperlink ref="D10" r:id="rId9"/>
+    <hyperlink ref="D1" r:id="rId1" xr:uid="{00000000-0004-0000-0600-000000000000}"/>
+    <hyperlink ref="D2" r:id="rId2" xr:uid="{00000000-0004-0000-0600-000001000000}"/>
+    <hyperlink ref="D3" r:id="rId3" xr:uid="{00000000-0004-0000-0600-000002000000}"/>
+    <hyperlink ref="D4" r:id="rId4" xr:uid="{00000000-0004-0000-0600-000003000000}"/>
+    <hyperlink ref="D6" r:id="rId5" xr:uid="{00000000-0004-0000-0600-000004000000}"/>
+    <hyperlink ref="D7" r:id="rId6" xr:uid="{00000000-0004-0000-0600-000005000000}"/>
+    <hyperlink ref="D8" r:id="rId7" xr:uid="{00000000-0004-0000-0600-000006000000}"/>
+    <hyperlink ref="D9" r:id="rId8" xr:uid="{00000000-0004-0000-0600-000007000000}"/>
+    <hyperlink ref="D10" r:id="rId9" xr:uid="{00000000-0004-0000-0600-000008000000}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0700-000000000000}">
   <sheetPr>
     <tabColor rgb="FFFFC000"/>
     <outlinePr summaryBelow="0" summaryRight="0"/>
@@ -3657,7 +3658,7 @@
         <v>3001</v>
       </c>
       <c r="B1" s="9" t="s">
-        <v>191</v>
+        <v>181</v>
       </c>
     </row>
     <row r="2" spans="1:2" ht="15.75" customHeight="1">
@@ -3665,7 +3666,7 @@
         <v>3002</v>
       </c>
       <c r="B2" s="9" t="s">
-        <v>192</v>
+        <v>182</v>
       </c>
     </row>
     <row r="3" spans="1:2" ht="15.75" customHeight="1">
@@ -3673,7 +3674,7 @@
         <v>3003</v>
       </c>
       <c r="B3" s="10" t="s">
-        <v>193</v>
+        <v>183</v>
       </c>
     </row>
     <row r="4" spans="1:2" ht="15.75" customHeight="1">
@@ -3681,7 +3682,7 @@
         <v>3004</v>
       </c>
       <c r="B4" s="11" t="s">
-        <v>194</v>
+        <v>184</v>
       </c>
     </row>
     <row r="5" spans="1:2" ht="15.75" customHeight="1">
@@ -3689,7 +3690,7 @@
         <v>3005</v>
       </c>
       <c r="B5" s="12" t="s">
-        <v>195</v>
+        <v>185</v>
       </c>
     </row>
     <row r="6" spans="1:2" ht="15.75" customHeight="1">
@@ -3697,7 +3698,7 @@
         <v>3001</v>
       </c>
       <c r="B6" s="9" t="s">
-        <v>191</v>
+        <v>181</v>
       </c>
     </row>
     <row r="7" spans="1:2" ht="15.75" customHeight="1">
@@ -3705,7 +3706,7 @@
         <v>3002</v>
       </c>
       <c r="B7" s="9" t="s">
-        <v>192</v>
+        <v>182</v>
       </c>
     </row>
     <row r="8" spans="1:2" ht="15.75" customHeight="1">
@@ -3713,7 +3714,7 @@
         <v>3003</v>
       </c>
       <c r="B8" s="10" t="s">
-        <v>193</v>
+        <v>183</v>
       </c>
     </row>
     <row r="9" spans="1:2" ht="15.75" customHeight="1">
@@ -3721,7 +3722,7 @@
         <v>3004</v>
       </c>
       <c r="B9" s="11" t="s">
-        <v>194</v>
+        <v>184</v>
       </c>
     </row>
     <row r="10" spans="1:2" ht="15.75" customHeight="1">
@@ -3729,7 +3730,7 @@
         <v>3005</v>
       </c>
       <c r="B10" s="12" t="s">
-        <v>195</v>
+        <v>185</v>
       </c>
     </row>
     <row r="11" spans="1:2" ht="15.75" customHeight="1">
@@ -3737,7 +3738,7 @@
         <v>3012</v>
       </c>
       <c r="B11" t="s">
-        <v>211</v>
+        <v>201</v>
       </c>
     </row>
   </sheetData>
@@ -3746,7 +3747,7 @@
 </file>
 
 <file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0800-000000000000}">
   <sheetPr>
     <tabColor rgb="FFFFC000"/>
     <outlinePr summaryBelow="0" summaryRight="0"/>
@@ -3768,7 +3769,7 @@
         <v>22001</v>
       </c>
       <c r="B1" s="24" t="s">
-        <v>158</v>
+        <v>148</v>
       </c>
       <c r="C1">
         <v>1</v>
@@ -3779,7 +3780,7 @@
         <v>22002</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>159</v>
+        <v>149</v>
       </c>
       <c r="C2">
         <v>1</v>
@@ -3790,7 +3791,7 @@
         <v>22003</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>160</v>
+        <v>150</v>
       </c>
       <c r="C3">
         <v>1</v>
@@ -3801,7 +3802,7 @@
         <v>22004</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>161</v>
+        <v>151</v>
       </c>
       <c r="C4">
         <v>1</v>
@@ -3812,7 +3813,7 @@
         <v>22005</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>162</v>
+        <v>152</v>
       </c>
       <c r="C5">
         <v>1</v>
@@ -3823,7 +3824,7 @@
         <v>22006</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>163</v>
+        <v>153</v>
       </c>
       <c r="C6">
         <v>1</v>
@@ -3834,7 +3835,7 @@
         <v>22007</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>164</v>
+        <v>154</v>
       </c>
       <c r="C7">
         <v>1</v>
@@ -3845,7 +3846,7 @@
         <v>22008</v>
       </c>
       <c r="B8" s="2" t="s">
-        <v>165</v>
+        <v>155</v>
       </c>
       <c r="C8">
         <v>1</v>
@@ -3856,7 +3857,7 @@
         <v>22009</v>
       </c>
       <c r="B9" s="2" t="s">
-        <v>166</v>
+        <v>156</v>
       </c>
       <c r="C9">
         <v>1</v>
@@ -3867,7 +3868,7 @@
         <v>22010</v>
       </c>
       <c r="B10" s="2" t="s">
-        <v>167</v>
+        <v>157</v>
       </c>
       <c r="C10">
         <v>1</v>
@@ -3878,7 +3879,7 @@
         <v>22001</v>
       </c>
       <c r="B11" s="24" t="s">
-        <v>196</v>
+        <v>186</v>
       </c>
       <c r="C11">
         <v>0</v>
@@ -3889,7 +3890,7 @@
         <v>22002</v>
       </c>
       <c r="B12" s="24" t="s">
-        <v>197</v>
+        <v>187</v>
       </c>
       <c r="C12">
         <v>0</v>
@@ -3900,7 +3901,7 @@
         <v>22003</v>
       </c>
       <c r="B13" s="24" t="s">
-        <v>198</v>
+        <v>188</v>
       </c>
       <c r="C13">
         <v>0</v>
@@ -3911,7 +3912,7 @@
         <v>22004</v>
       </c>
       <c r="B14" s="24" t="s">
-        <v>199</v>
+        <v>189</v>
       </c>
       <c r="C14">
         <v>0</v>
@@ -3922,7 +3923,7 @@
         <v>22005</v>
       </c>
       <c r="B15" s="24" t="s">
-        <v>200</v>
+        <v>190</v>
       </c>
       <c r="C15">
         <v>0</v>
@@ -3933,7 +3934,7 @@
         <v>22006</v>
       </c>
       <c r="B16" s="24" t="s">
-        <v>201</v>
+        <v>191</v>
       </c>
       <c r="C16">
         <v>0</v>
@@ -3944,7 +3945,7 @@
         <v>22007</v>
       </c>
       <c r="B17" s="24" t="s">
-        <v>202</v>
+        <v>192</v>
       </c>
       <c r="C17">
         <v>0</v>
@@ -3955,7 +3956,7 @@
         <v>22008</v>
       </c>
       <c r="B18" s="24" t="s">
-        <v>203</v>
+        <v>193</v>
       </c>
       <c r="C18">
         <v>0</v>
@@ -3966,7 +3967,7 @@
         <v>22009</v>
       </c>
       <c r="B19" s="24" t="s">
-        <v>200</v>
+        <v>190</v>
       </c>
       <c r="C19">
         <v>0</v>
@@ -3977,7 +3978,7 @@
         <v>22010</v>
       </c>
       <c r="B20" s="24" t="s">
-        <v>204</v>
+        <v>194</v>
       </c>
       <c r="C20">
         <v>0</v>
